--- a/src/xlsx/test.xlsx
+++ b/src/xlsx/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQPCmgr\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80BC7A2-7D81-4E93-ABD6-0EA97918B2BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6F8D5C-AA9F-4C73-B45D-8239E3F96CF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,9 +367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/src/xlsx/test.xlsx
+++ b/src/xlsx/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQPCmgr\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6F8D5C-AA9F-4C73-B45D-8239E3F96CF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E9D584-F749-456A-99DD-30B73F251595}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,13 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成绩</t>
+    <t>simon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -39,7 +36,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>simon</t>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,40 +369,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E854B1FA-14C9-42B0-9D2A-6E55EC68E784}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
       <c r="B3">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="C3">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{93CC85B2-3785-4C50-AD37-EBD16C0D933E}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!F3:I3</xm:f>
+              <xm:sqref>J11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>